--- a/DataInfo/St.xlsx
+++ b/DataInfo/St.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>teacher_id</t>
   </si>
@@ -27,15 +27,6 @@
     <t>class_name</t>
   </si>
   <si>
-    <t>2016级网络工程班</t>
-  </si>
-  <si>
-    <t>2016级信息安全班</t>
-  </si>
-  <si>
-    <t>2016级计算机联合班</t>
-  </si>
-  <si>
     <t>9081283712368</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,6 +36,26 @@
   </si>
   <si>
     <t>3561782890912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络工程班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息安全班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机联合班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -378,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -390,36 +401,48 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
